--- a/data/pca/factorExposure/factorExposure_2017-05-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02322738795537785</v>
+        <v>0.009472378068252234</v>
       </c>
       <c r="C2">
-        <v>0.006217506694809993</v>
+        <v>0.04307610179243987</v>
       </c>
       <c r="D2">
-        <v>0.03017390931158418</v>
+        <v>0.02963884788000683</v>
       </c>
       <c r="E2">
-        <v>-0.006360060224430157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03144642177369845</v>
+      </c>
+      <c r="F2">
+        <v>-0.009117867368798657</v>
+      </c>
+      <c r="G2">
+        <v>0.09520219619811367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01723938209521056</v>
+        <v>0.04324912978648187</v>
       </c>
       <c r="C3">
-        <v>-0.01809844035955442</v>
+        <v>0.102002299907239</v>
       </c>
       <c r="D3">
-        <v>0.1068473525120236</v>
+        <v>0.01759524958586963</v>
       </c>
       <c r="E3">
-        <v>-0.05189263802445961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09711264255407451</v>
+      </c>
+      <c r="F3">
+        <v>-0.002256672597772331</v>
+      </c>
+      <c r="G3">
+        <v>0.1934103092690933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0246350876836771</v>
+        <v>0.05495473441209171</v>
       </c>
       <c r="C4">
-        <v>-0.001525463931983997</v>
+        <v>0.0676270208759439</v>
       </c>
       <c r="D4">
-        <v>0.08550815214950072</v>
+        <v>0.024405090984066</v>
       </c>
       <c r="E4">
-        <v>0.00671876145343309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02695596566883934</v>
+      </c>
+      <c r="F4">
+        <v>-0.0113871221247005</v>
+      </c>
+      <c r="G4">
+        <v>0.09871351180524489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01207482532170157</v>
+        <v>0.03626345850617212</v>
       </c>
       <c r="C6">
-        <v>0.01515729309836545</v>
+        <v>0.05226631263439056</v>
       </c>
       <c r="D6">
-        <v>0.0783913213502488</v>
+        <v>0.01687141151182059</v>
       </c>
       <c r="E6">
-        <v>0.007973176543137362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03191789620934648</v>
+      </c>
+      <c r="F6">
+        <v>-0.01064457507424406</v>
+      </c>
+      <c r="G6">
+        <v>0.07998410298565198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01177978163149846</v>
+        <v>0.02072986010227519</v>
       </c>
       <c r="C7">
-        <v>-0.0005425441334464771</v>
+        <v>0.04129703826707823</v>
       </c>
       <c r="D7">
-        <v>0.04429555283405787</v>
+        <v>0.01352951925524194</v>
       </c>
       <c r="E7">
-        <v>0.03754552982400455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.003782668778091091</v>
+      </c>
+      <c r="F7">
+        <v>0.003753109253044837</v>
+      </c>
+      <c r="G7">
+        <v>0.1265194874005662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0003581982502347043</v>
+        <v>0.003321155901555353</v>
       </c>
       <c r="C8">
-        <v>0.001804469411686988</v>
+        <v>0.0247072336701095</v>
       </c>
       <c r="D8">
-        <v>0.003968753892099318</v>
+        <v>0.003927469179312301</v>
       </c>
       <c r="E8">
-        <v>0.002098745310814256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02379577997036063</v>
+      </c>
+      <c r="F8">
+        <v>-0.007012400225251156</v>
+      </c>
+      <c r="G8">
+        <v>0.0697822598625468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01693289796027854</v>
+        <v>0.0330062452626828</v>
       </c>
       <c r="C9">
-        <v>-0.005043455621618564</v>
+        <v>0.04875214385795854</v>
       </c>
       <c r="D9">
-        <v>0.06208801087838307</v>
+        <v>0.01647582673107231</v>
       </c>
       <c r="E9">
-        <v>-0.0002622711589498459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01642894382685752</v>
+      </c>
+      <c r="F9">
+        <v>-0.00810011992580187</v>
+      </c>
+      <c r="G9">
+        <v>0.09710117355497777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.04602573923482327</v>
+        <v>0.09926906228355219</v>
       </c>
       <c r="C10">
-        <v>-0.1812180502879086</v>
+        <v>-0.1811566562124819</v>
       </c>
       <c r="D10">
-        <v>-0.08658940124528963</v>
+        <v>-0.01519728862683386</v>
       </c>
       <c r="E10">
-        <v>-0.02986811729203464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01888944162653973</v>
+      </c>
+      <c r="F10">
+        <v>0.02331172759685286</v>
+      </c>
+      <c r="G10">
+        <v>0.06101502670557059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>8.517288687319906e-05</v>
+        <v>0.03478037441162281</v>
       </c>
       <c r="C11">
-        <v>0.004382176130295064</v>
+        <v>0.05432017499491223</v>
       </c>
       <c r="D11">
-        <v>0.05637147058633373</v>
+        <v>0.002235602820311268</v>
       </c>
       <c r="E11">
-        <v>-0.00196035802322988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01005631673248086</v>
+      </c>
+      <c r="F11">
+        <v>-0.02174419970888441</v>
+      </c>
+      <c r="G11">
+        <v>0.08830325770697417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005051488840799052</v>
+        <v>0.03650584004772036</v>
       </c>
       <c r="C12">
-        <v>0.003096257281228663</v>
+        <v>0.04926915749674131</v>
       </c>
       <c r="D12">
-        <v>0.05188944175670029</v>
+        <v>0.006272179672271373</v>
       </c>
       <c r="E12">
-        <v>0.01186997530387861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003184061738861294</v>
+      </c>
+      <c r="F12">
+        <v>-0.002451110235438922</v>
+      </c>
+      <c r="G12">
+        <v>0.08316874966347741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0242060431400632</v>
+        <v>0.01616204181380067</v>
       </c>
       <c r="C13">
-        <v>-0.005885029721232559</v>
+        <v>0.04106290776867574</v>
       </c>
       <c r="D13">
-        <v>0.03738206132122852</v>
+        <v>0.02616699296718286</v>
       </c>
       <c r="E13">
-        <v>-0.02040925759390116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02982168365426513</v>
+      </c>
+      <c r="F13">
+        <v>-0.005665291110043642</v>
+      </c>
+      <c r="G13">
+        <v>0.1259557998931631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009462289534281651</v>
+        <v>0.008678393290521801</v>
       </c>
       <c r="C14">
-        <v>-0.007647174661137282</v>
+        <v>0.02911316712896587</v>
       </c>
       <c r="D14">
-        <v>0.01962689721748776</v>
+        <v>0.009893495353466028</v>
       </c>
       <c r="E14">
-        <v>-0.001753237277780879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002668496813298253</v>
+      </c>
+      <c r="F14">
+        <v>0.008242244216666424</v>
+      </c>
+      <c r="G14">
+        <v>0.1018815659010074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001804016963622219</v>
+        <v>0.03322669870263049</v>
       </c>
       <c r="C16">
-        <v>-0.003480122136454092</v>
+        <v>0.04761332238690574</v>
       </c>
       <c r="D16">
-        <v>0.04701332212674303</v>
+        <v>0.001798477282959703</v>
       </c>
       <c r="E16">
-        <v>0.008487979785724666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009093144019549339</v>
+      </c>
+      <c r="F16">
+        <v>-0.003749799807360009</v>
+      </c>
+      <c r="G16">
+        <v>0.09071579695545851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01366100270088752</v>
+        <v>0.02174422020694691</v>
       </c>
       <c r="C19">
-        <v>6.22874119480605e-05</v>
+        <v>0.05454322964067266</v>
       </c>
       <c r="D19">
-        <v>0.05023840487845608</v>
+        <v>0.01883572793393761</v>
       </c>
       <c r="E19">
-        <v>-0.0007554363971892949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06927725834847981</v>
+      </c>
+      <c r="F19">
+        <v>-0.01953136376672205</v>
+      </c>
+      <c r="G19">
+        <v>0.1366667791599738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01092470002965233</v>
+        <v>0.01519428695209981</v>
       </c>
       <c r="C20">
-        <v>0.001195689310703696</v>
+        <v>0.04001127581554064</v>
       </c>
       <c r="D20">
-        <v>0.03611565998163893</v>
+        <v>0.01409946437026207</v>
       </c>
       <c r="E20">
-        <v>-0.02929653872448728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02985149221993538</v>
+      </c>
+      <c r="F20">
+        <v>0.0123279001127853</v>
+      </c>
+      <c r="G20">
+        <v>0.1083296292994115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01507844821468024</v>
+        <v>0.0125007016236197</v>
       </c>
       <c r="C21">
-        <v>-0.004334864420087286</v>
+        <v>0.04013710134732618</v>
       </c>
       <c r="D21">
-        <v>0.03825526732733086</v>
+        <v>0.01880501455401985</v>
       </c>
       <c r="E21">
-        <v>-0.006601659738917667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04236379153205959</v>
+      </c>
+      <c r="F21">
+        <v>-0.002825097704646012</v>
+      </c>
+      <c r="G21">
+        <v>0.1331245838329462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001076841963179945</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002592191399918513</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0004176715842763703</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001575783414579149</v>
+      </c>
+      <c r="F22">
+        <v>-0.001151185733034163</v>
+      </c>
+      <c r="G22">
+        <v>0.003292695291698297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001081191728926733</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002587909239578072</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0004177911182407827</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001581455964117453</v>
+      </c>
+      <c r="F23">
+        <v>-0.001149669975974763</v>
+      </c>
+      <c r="G23">
+        <v>0.003305483641897585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.002852977045242773</v>
+        <v>0.028913550009332</v>
       </c>
       <c r="C24">
-        <v>0.009805395331033986</v>
+        <v>0.05184002525918468</v>
       </c>
       <c r="D24">
-        <v>0.0503149948100641</v>
+        <v>0.007009478832297429</v>
       </c>
       <c r="E24">
-        <v>0.007384841827732595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005768872106913658</v>
+      </c>
+      <c r="F24">
+        <v>-0.0131747378579999</v>
+      </c>
+      <c r="G24">
+        <v>0.08888104611522385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01257352383489228</v>
+        <v>0.04313668089972553</v>
       </c>
       <c r="C25">
-        <v>-0.004561433970574708</v>
+        <v>0.0591382784391014</v>
       </c>
       <c r="D25">
-        <v>0.06132396444236311</v>
+        <v>0.0110518238999045</v>
       </c>
       <c r="E25">
-        <v>0.01013411669485668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001547211441000928</v>
+      </c>
+      <c r="F25">
+        <v>-0.006181556318696162</v>
+      </c>
+      <c r="G25">
+        <v>0.09926822194509391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02310198930900877</v>
+        <v>0.01418625370124924</v>
       </c>
       <c r="C26">
-        <v>-0.0006305064473832823</v>
+        <v>0.01142395154119192</v>
       </c>
       <c r="D26">
-        <v>0.003165466433698879</v>
+        <v>0.02397954748385842</v>
       </c>
       <c r="E26">
-        <v>0.00326746782634578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.006942837724793988</v>
+      </c>
+      <c r="F26">
+        <v>0.008064561408792265</v>
+      </c>
+      <c r="G26">
+        <v>0.08103150599690845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07613400514365692</v>
+        <v>0.1262257199561654</v>
       </c>
       <c r="C28">
-        <v>-0.2423033518269822</v>
+        <v>-0.2375749149129536</v>
       </c>
       <c r="D28">
-        <v>-0.1056775226090098</v>
+        <v>-0.006046778708716651</v>
       </c>
       <c r="E28">
-        <v>4.075790438782909e-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.00470798960262097</v>
+      </c>
+      <c r="F28">
+        <v>0.01524914588203985</v>
+      </c>
+      <c r="G28">
+        <v>0.05384608944718473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01058731451208871</v>
+        <v>0.009356061589071102</v>
       </c>
       <c r="C29">
-        <v>-0.01250533762033672</v>
+        <v>0.02280231700046777</v>
       </c>
       <c r="D29">
-        <v>0.02090975110413315</v>
+        <v>0.008919190749307578</v>
       </c>
       <c r="E29">
-        <v>-0.004400613911210179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0007425072960394659</v>
+      </c>
+      <c r="F29">
+        <v>0.01696477723943048</v>
+      </c>
+      <c r="G29">
+        <v>0.0946992231266003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02143024582997803</v>
+        <v>0.04072831137583403</v>
       </c>
       <c r="C30">
-        <v>0.01775794170812655</v>
+        <v>0.06887466320899036</v>
       </c>
       <c r="D30">
-        <v>0.09661863824659356</v>
+        <v>0.02882122717514824</v>
       </c>
       <c r="E30">
-        <v>-0.03348046983060664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05330822844190602</v>
+      </c>
+      <c r="F30">
+        <v>-0.04671074786010234</v>
+      </c>
+      <c r="G30">
+        <v>0.1122384505096172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01260053217435085</v>
+        <v>0.05321072830882687</v>
       </c>
       <c r="C31">
-        <v>-0.02572639657797887</v>
+        <v>0.03796361044914456</v>
       </c>
       <c r="D31">
-        <v>0.03987507356429224</v>
+        <v>0.003711331681880553</v>
       </c>
       <c r="E31">
-        <v>0.0002521416499189987</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001857828527297107</v>
+      </c>
+      <c r="F31">
+        <v>0.04080198848050195</v>
+      </c>
+      <c r="G31">
+        <v>0.09667500884407605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003384710941580708</v>
+        <v>0.002063221358591378</v>
       </c>
       <c r="C32">
-        <v>-0.0180498464202813</v>
+        <v>0.02501334677844161</v>
       </c>
       <c r="D32">
-        <v>0.009670748086566159</v>
+        <v>-0.003560349415004164</v>
       </c>
       <c r="E32">
-        <v>0.03861025987404069</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01952244513102789</v>
+      </c>
+      <c r="F32">
+        <v>-0.03844171933730679</v>
+      </c>
+      <c r="G32">
+        <v>0.09198708831701487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01301485148172744</v>
+        <v>0.0277423843449996</v>
       </c>
       <c r="C33">
-        <v>-0.003663743875757385</v>
+        <v>0.05000751350626323</v>
       </c>
       <c r="D33">
-        <v>0.04228569071257737</v>
+        <v>0.01560689700209705</v>
       </c>
       <c r="E33">
-        <v>-0.02256342629122195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03610967128863337</v>
+      </c>
+      <c r="F33">
+        <v>-0.01702500161917064</v>
+      </c>
+      <c r="G33">
+        <v>0.1512077569774896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.002450755889675563</v>
+        <v>0.04061846135594223</v>
       </c>
       <c r="C34">
-        <v>-0.0109881946725587</v>
+        <v>0.06123488357565244</v>
       </c>
       <c r="D34">
-        <v>0.0603019344510636</v>
+        <v>-0.004862940183700383</v>
       </c>
       <c r="E34">
-        <v>0.02016337870059201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0002943274515160394</v>
+      </c>
+      <c r="F34">
+        <v>-0.02030968887626134</v>
+      </c>
+      <c r="G34">
+        <v>0.09534648759867466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01423342118505391</v>
+        <v>0.01632141098954666</v>
       </c>
       <c r="C36">
-        <v>-0.0114916115586629</v>
+        <v>0.009623462887922879</v>
       </c>
       <c r="D36">
-        <v>0.007792969735072317</v>
+        <v>0.01231999492768572</v>
       </c>
       <c r="E36">
-        <v>0.002238479683553203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004495664572815865</v>
+      </c>
+      <c r="F36">
+        <v>0.006576616496784106</v>
+      </c>
+      <c r="G36">
+        <v>0.08865339568661419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0002697028688287822</v>
+        <v>0.03190346980948205</v>
       </c>
       <c r="C38">
-        <v>-0.02407851685087851</v>
+        <v>0.03135450392768505</v>
       </c>
       <c r="D38">
-        <v>0.05044327117216867</v>
+        <v>-0.0076740755074443</v>
       </c>
       <c r="E38">
-        <v>0.006548045649661801</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00215628991499261</v>
+      </c>
+      <c r="F38">
+        <v>0.02068740099044068</v>
+      </c>
+      <c r="G38">
+        <v>0.08351305997470125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0001161501472613484</v>
+        <v>0.0364017784714473</v>
       </c>
       <c r="C39">
-        <v>0.03428687169806899</v>
+        <v>0.0814647069265905</v>
       </c>
       <c r="D39">
-        <v>0.100193782245631</v>
+        <v>0.01156112306659268</v>
       </c>
       <c r="E39">
-        <v>-0.01438373076204934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02178518650380048</v>
+      </c>
+      <c r="F39">
+        <v>-0.02460661192715221</v>
+      </c>
+      <c r="G39">
+        <v>0.08621589996488276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01290643864016486</v>
+        <v>0.01421604636461083</v>
       </c>
       <c r="C40">
-        <v>-0.005777740407084475</v>
+        <v>0.04239206380521802</v>
       </c>
       <c r="D40">
-        <v>0.04165035863585556</v>
+        <v>0.01468397802175756</v>
       </c>
       <c r="E40">
-        <v>0.01318738165390173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01909706546681553</v>
+      </c>
+      <c r="F40">
+        <v>0.01689859669727076</v>
+      </c>
+      <c r="G40">
+        <v>0.123299776423482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.008823584010697974</v>
+        <v>0.02095111194399682</v>
       </c>
       <c r="C41">
-        <v>-0.01996229782911756</v>
+        <v>0.002425529312484733</v>
       </c>
       <c r="D41">
-        <v>-0.009354609291215408</v>
+        <v>0.004148475097711394</v>
       </c>
       <c r="E41">
-        <v>0.00888953195494817</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002785466403557662</v>
+      </c>
+      <c r="F41">
+        <v>0.01576141082003047</v>
+      </c>
+      <c r="G41">
+        <v>0.07841040326442135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08540876743615913</v>
+        <v>0.008849312642424875</v>
       </c>
       <c r="C42">
-        <v>0.04742744955146152</v>
+        <v>0.02994766597699184</v>
       </c>
       <c r="D42">
-        <v>0.1400691005177306</v>
+        <v>0.09019960120495897</v>
       </c>
       <c r="E42">
-        <v>-0.2869855735349052</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01643881480254961</v>
+      </c>
+      <c r="F42">
+        <v>0.03827846699263071</v>
+      </c>
+      <c r="G42">
+        <v>-0.1009585265472906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01010087253255535</v>
+        <v>0.03483439622556266</v>
       </c>
       <c r="C43">
-        <v>-0.02155668113482994</v>
+        <v>0.0181440587461606</v>
       </c>
       <c r="D43">
-        <v>-0.004185740125778797</v>
+        <v>0.005887030762074373</v>
       </c>
       <c r="E43">
-        <v>0.01246028143841757</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01694664232302859</v>
+      </c>
+      <c r="F43">
+        <v>0.004989148178418519</v>
+      </c>
+      <c r="G43">
+        <v>0.1154151881667465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002117026385215646</v>
+        <v>0.01271704151826752</v>
       </c>
       <c r="C44">
-        <v>0.005018052570324686</v>
+        <v>0.05923834604960632</v>
       </c>
       <c r="D44">
-        <v>0.05544506679248114</v>
+        <v>0.0067813020293746</v>
       </c>
       <c r="E44">
-        <v>0.00777069225865015</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01860701741838618</v>
+      </c>
+      <c r="F44">
+        <v>0.007124986284475891</v>
+      </c>
+      <c r="G44">
+        <v>0.1029350214919725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01179123302833415</v>
+        <v>0.00773625445833449</v>
       </c>
       <c r="C46">
-        <v>-0.005912103837252537</v>
+        <v>0.01739021530676245</v>
       </c>
       <c r="D46">
-        <v>0.006145241845824626</v>
+        <v>0.01259510906757418</v>
       </c>
       <c r="E46">
-        <v>-0.008935607126687549</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0009190449109561319</v>
+      </c>
+      <c r="F46">
+        <v>0.01590119939576429</v>
+      </c>
+      <c r="G46">
+        <v>0.09897202598783972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.00794889720476108</v>
+        <v>0.07724212705192555</v>
       </c>
       <c r="C47">
-        <v>-0.03257143266065961</v>
+        <v>0.06755745761580242</v>
       </c>
       <c r="D47">
-        <v>0.0782626508851558</v>
+        <v>-0.005063658286666762</v>
       </c>
       <c r="E47">
-        <v>0.01323126597393473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007064807931063974</v>
+      </c>
+      <c r="F47">
+        <v>0.05535155916098308</v>
+      </c>
+      <c r="G47">
+        <v>0.0844436066485609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005412176777979367</v>
+        <v>0.019517674807033</v>
       </c>
       <c r="C48">
-        <v>-0.01442183314741029</v>
+        <v>0.01275339703962615</v>
       </c>
       <c r="D48">
-        <v>0.02102080175090448</v>
+        <v>0.001917948748540662</v>
       </c>
       <c r="E48">
-        <v>-0.002437660391160358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002157602790670234</v>
+      </c>
+      <c r="F48">
+        <v>0.01972446330280512</v>
+      </c>
+      <c r="G48">
+        <v>0.09188056256459172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.01033163361371779</v>
+        <v>0.07502487814803642</v>
       </c>
       <c r="C50">
-        <v>-0.03465442510328143</v>
+        <v>0.0726645856209459</v>
       </c>
       <c r="D50">
-        <v>0.07577201688527593</v>
+        <v>-0.00230832701709658</v>
       </c>
       <c r="E50">
-        <v>0.02564082054436565</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.00603427900554338</v>
+      </c>
+      <c r="F50">
+        <v>0.05599369101703069</v>
+      </c>
+      <c r="G50">
+        <v>0.09718930937202001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0080331590671268</v>
+        <v>0.01468337373993565</v>
       </c>
       <c r="C51">
-        <v>-0.006276718221816168</v>
+        <v>0.03685939431940857</v>
       </c>
       <c r="D51">
-        <v>0.02353241326407571</v>
+        <v>0.01046906077890452</v>
       </c>
       <c r="E51">
-        <v>0.006160024791844743</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01929452765264582</v>
+      </c>
+      <c r="F51">
+        <v>-0.02293595537850753</v>
+      </c>
+      <c r="G51">
+        <v>0.1237171155143348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009914907458494516</v>
+        <v>0.08179831336081712</v>
       </c>
       <c r="C53">
-        <v>-0.02810492254649738</v>
+        <v>0.0858383325783342</v>
       </c>
       <c r="D53">
-        <v>0.134926546194903</v>
+        <v>-0.003462404537807215</v>
       </c>
       <c r="E53">
-        <v>0.02378185536587329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02453796858049975</v>
+      </c>
+      <c r="F53">
+        <v>0.06605327529579039</v>
+      </c>
+      <c r="G53">
+        <v>0.08735883903369829</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.007888157377315746</v>
+        <v>0.03254268284864949</v>
       </c>
       <c r="C54">
-        <v>-0.04019708061208487</v>
+        <v>0.01764900745136437</v>
       </c>
       <c r="D54">
-        <v>0.002044077806630129</v>
+        <v>-0.001636613090508783</v>
       </c>
       <c r="E54">
-        <v>-0.01810640979770354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01346068911297746</v>
+      </c>
+      <c r="F54">
+        <v>0.004721533879109683</v>
+      </c>
+      <c r="G54">
+        <v>0.1032923166778123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005287372229016543</v>
+        <v>0.0718092408706693</v>
       </c>
       <c r="C55">
-        <v>-0.01825557462371209</v>
+        <v>0.06892857775882506</v>
       </c>
       <c r="D55">
-        <v>0.1086463617756952</v>
+        <v>-0.005028342961611228</v>
       </c>
       <c r="E55">
-        <v>0.007057491771114309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02191623047067156</v>
+      </c>
+      <c r="F55">
+        <v>0.06322204709288726</v>
+      </c>
+      <c r="G55">
+        <v>0.06190567908961367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.01130826062624554</v>
+        <v>0.1371955684371239</v>
       </c>
       <c r="C56">
-        <v>-0.04857410400092917</v>
+        <v>0.1086535720425421</v>
       </c>
       <c r="D56">
-        <v>0.1670638403664993</v>
+        <v>-0.01259630360752315</v>
       </c>
       <c r="E56">
-        <v>0.03048399709741409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03109772688040822</v>
+      </c>
+      <c r="F56">
+        <v>0.08133157535865564</v>
+      </c>
+      <c r="G56">
+        <v>0.0355312848080197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02432418488348875</v>
+        <v>0.005623332270162248</v>
       </c>
       <c r="C57">
-        <v>-1.309278396938734e-05</v>
+        <v>0.007238439245117574</v>
       </c>
       <c r="D57">
-        <v>0.03681030938394494</v>
+        <v>0.02340005278948189</v>
       </c>
       <c r="E57">
-        <v>-0.0405145275660076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.0250494950274506</v>
+      </c>
+      <c r="F57">
+        <v>-0.01088720714814394</v>
+      </c>
+      <c r="G57">
+        <v>0.02721820584983524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01402314103899358</v>
+        <v>0.05186436160500645</v>
       </c>
       <c r="C58">
-        <v>-0.0319703006580259</v>
+        <v>0.04862702073175342</v>
       </c>
       <c r="D58">
-        <v>0.1408759481780808</v>
+        <v>0.02336971003926797</v>
       </c>
       <c r="E58">
-        <v>-0.8483800490615909</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9361240358835414</v>
+      </c>
+      <c r="F58">
+        <v>0.2274109635065976</v>
+      </c>
+      <c r="G58">
+        <v>-0.1620422423763737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.07813032863750581</v>
+        <v>0.1606113177164912</v>
       </c>
       <c r="C59">
-        <v>-0.265329078439537</v>
+        <v>-0.2028857897832155</v>
       </c>
       <c r="D59">
-        <v>-0.08836874591100141</v>
+        <v>-0.01146528148824527</v>
       </c>
       <c r="E59">
-        <v>0.02112265717535971</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01661415867192873</v>
+      </c>
+      <c r="F59">
+        <v>0.0006967056277225024</v>
+      </c>
+      <c r="G59">
+        <v>0.04338432618954551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.06735467060151654</v>
+        <v>0.2879759638088686</v>
       </c>
       <c r="C60">
-        <v>-0.1576497565932563</v>
+        <v>0.1077034705988709</v>
       </c>
       <c r="D60">
-        <v>0.1437372635639777</v>
+        <v>0.01183083981468668</v>
       </c>
       <c r="E60">
-        <v>0.06474255390572396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.006296498838201977</v>
+      </c>
+      <c r="F60">
+        <v>-0.3440022684997465</v>
+      </c>
+      <c r="G60">
+        <v>-0.146590175579498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002081394286701182</v>
+        <v>0.03803585474230883</v>
       </c>
       <c r="C61">
-        <v>0.006820709394076804</v>
+        <v>0.0670039083586913</v>
       </c>
       <c r="D61">
-        <v>0.07489603707067206</v>
+        <v>0.005280799589768248</v>
       </c>
       <c r="E61">
-        <v>0.005495145136216428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01393186916585787</v>
+      </c>
+      <c r="F61">
+        <v>-0.01595243679255265</v>
+      </c>
+      <c r="G61">
+        <v>0.0916548745730926</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008137052863973926</v>
+        <v>0.01531742812189194</v>
       </c>
       <c r="C63">
-        <v>-0.0004826645628583571</v>
+        <v>0.0304107516185805</v>
       </c>
       <c r="D63">
-        <v>0.02876468963684717</v>
+        <v>0.008479281369846024</v>
       </c>
       <c r="E63">
-        <v>0.01237356736739565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001245113633921281</v>
+      </c>
+      <c r="F63">
+        <v>0.01773621493686483</v>
+      </c>
+      <c r="G63">
+        <v>0.09430232672525138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01077661163669325</v>
+        <v>0.04775620840619423</v>
       </c>
       <c r="C64">
-        <v>-0.01635598692371157</v>
+        <v>0.0473623429458478</v>
       </c>
       <c r="D64">
-        <v>0.06363708217788779</v>
+        <v>0.006208913523931499</v>
       </c>
       <c r="E64">
-        <v>0.006665257359676512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0006938412394638078</v>
+      </c>
+      <c r="F64">
+        <v>-0.007058713560946579</v>
+      </c>
+      <c r="G64">
+        <v>0.0886579093992016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01763559170818847</v>
+        <v>0.07432965443424254</v>
       </c>
       <c r="C65">
-        <v>0.005209457128830396</v>
+        <v>0.05955951882313018</v>
       </c>
       <c r="D65">
-        <v>0.1035157635543623</v>
+        <v>0.01646792690353446</v>
       </c>
       <c r="E65">
-        <v>0.02706208770494777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.033721476768054</v>
+      </c>
+      <c r="F65">
+        <v>-0.03155418191119402</v>
+      </c>
+      <c r="G65">
+        <v>0.03478674298145902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0002093513236109312</v>
+        <v>0.05102862418628341</v>
       </c>
       <c r="C66">
-        <v>0.03521847082934643</v>
+        <v>0.1087447394804185</v>
       </c>
       <c r="D66">
-        <v>0.1334830215341862</v>
+        <v>0.0114994708339264</v>
       </c>
       <c r="E66">
-        <v>-0.004832528845650303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03042872202607601</v>
+      </c>
+      <c r="F66">
+        <v>-0.03606790996426825</v>
+      </c>
+      <c r="G66">
+        <v>0.1032513099832185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.008545146298049361</v>
+        <v>0.05490382102174895</v>
       </c>
       <c r="C67">
-        <v>-0.04142370325983877</v>
+        <v>0.03498325097205582</v>
       </c>
       <c r="D67">
-        <v>0.06955396256787864</v>
+        <v>-0.006095547445589299</v>
       </c>
       <c r="E67">
-        <v>0.01042495052310373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004880287399355568</v>
+      </c>
+      <c r="F67">
+        <v>0.01965958540996027</v>
+      </c>
+      <c r="G67">
+        <v>0.0747164495357273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.09321932268096747</v>
+        <v>0.1550376963268072</v>
       </c>
       <c r="C68">
-        <v>-0.2519675652659638</v>
+        <v>-0.2692523163586278</v>
       </c>
       <c r="D68">
-        <v>-0.1409826703643537</v>
+        <v>0.006143029442506429</v>
       </c>
       <c r="E68">
-        <v>-0.02742393285865353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01219049490765209</v>
+      </c>
+      <c r="F68">
+        <v>0.03147027370238342</v>
+      </c>
+      <c r="G68">
+        <v>0.03216804783822533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003478638435076827</v>
+        <v>0.08215962155316105</v>
       </c>
       <c r="C69">
-        <v>-0.02898606169523479</v>
+        <v>0.07117886628849232</v>
       </c>
       <c r="D69">
-        <v>0.08218401219079485</v>
+        <v>-0.008924843122465364</v>
       </c>
       <c r="E69">
-        <v>0.02413235224972624</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0223679096771973</v>
+      </c>
+      <c r="F69">
+        <v>0.03670978039231766</v>
+      </c>
+      <c r="G69">
+        <v>0.09674735131099374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.07195646846420313</v>
+        <v>0.141001440155241</v>
       </c>
       <c r="C71">
-        <v>-0.2129170140792936</v>
+        <v>-0.2277820283421765</v>
       </c>
       <c r="D71">
-        <v>-0.08862849048821818</v>
+        <v>-0.002553271417162864</v>
       </c>
       <c r="E71">
-        <v>-0.02833712301525707</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03247169267868556</v>
+      </c>
+      <c r="F71">
+        <v>0.01861110863118758</v>
+      </c>
+      <c r="G71">
+        <v>0.0691743201894221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>1.396534123151751e-05</v>
+        <v>0.08448594994311083</v>
       </c>
       <c r="C72">
-        <v>-0.01774016449238262</v>
+        <v>0.0717848538081645</v>
       </c>
       <c r="D72">
-        <v>0.1059320875680775</v>
+        <v>-0.008417431491140192</v>
       </c>
       <c r="E72">
-        <v>0.04269645821359254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.006077448390578075</v>
+      </c>
+      <c r="F72">
+        <v>-0.03888010025604671</v>
+      </c>
+      <c r="G72">
+        <v>0.0832819764095826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.07921241824155337</v>
+        <v>0.3756493359700282</v>
       </c>
       <c r="C73">
-        <v>-0.158787229541531</v>
+        <v>0.1193173967032041</v>
       </c>
       <c r="D73">
-        <v>0.266365679977867</v>
+        <v>0.02079146684582938</v>
       </c>
       <c r="E73">
-        <v>0.03387222758666592</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06591076868312573</v>
+      </c>
+      <c r="F73">
+        <v>-0.5774960436212533</v>
+      </c>
+      <c r="G73">
+        <v>-0.2678778085675987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.009387156317687578</v>
+        <v>0.1047282751772263</v>
       </c>
       <c r="C74">
-        <v>-0.04374450135794843</v>
+        <v>0.1091415040194002</v>
       </c>
       <c r="D74">
-        <v>0.1780675018797459</v>
+        <v>-0.009428857759441904</v>
       </c>
       <c r="E74">
-        <v>0.01844545180200199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.006914914518789515</v>
+      </c>
+      <c r="F74">
+        <v>0.0694569721924459</v>
+      </c>
+      <c r="G74">
+        <v>0.07947714992690533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.02771681030031358</v>
+        <v>0.2486607344095695</v>
       </c>
       <c r="C75">
-        <v>-0.1198729826872681</v>
+        <v>0.1525313669720816</v>
       </c>
       <c r="D75">
-        <v>0.3135474321556321</v>
+        <v>-0.03079205673909067</v>
       </c>
       <c r="E75">
-        <v>0.03812078598244766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0554327967019136</v>
+      </c>
+      <c r="F75">
+        <v>0.1785325035698715</v>
+      </c>
+      <c r="G75">
+        <v>-0.02906135298766238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00733643412967795</v>
+        <v>0.1192310345696204</v>
       </c>
       <c r="C76">
-        <v>-0.05923780942077422</v>
+        <v>0.1096198706996297</v>
       </c>
       <c r="D76">
-        <v>0.2255260121818226</v>
+        <v>-0.01868715818851364</v>
       </c>
       <c r="E76">
-        <v>0.0540045752272892</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03008319221840697</v>
+      </c>
+      <c r="F76">
+        <v>0.1105306242553583</v>
+      </c>
+      <c r="G76">
+        <v>0.05535600484108936</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01513562211173972</v>
+        <v>0.06763406555722438</v>
       </c>
       <c r="C77">
-        <v>-0.01011357875902353</v>
+        <v>0.05999337001196978</v>
       </c>
       <c r="D77">
-        <v>0.07102244536357923</v>
+        <v>0.01089361055382207</v>
       </c>
       <c r="E77">
-        <v>-0.01001665378832072</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04083959808407835</v>
+      </c>
+      <c r="F77">
+        <v>-0.01309368245210041</v>
+      </c>
+      <c r="G77">
+        <v>0.06491392696575732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004243003630470492</v>
+        <v>0.04166957952185953</v>
       </c>
       <c r="C78">
-        <v>0.001279883022790571</v>
+        <v>0.05173719651115216</v>
       </c>
       <c r="D78">
-        <v>0.05830469455489978</v>
+        <v>0.005541007657772257</v>
       </c>
       <c r="E78">
-        <v>-0.01165877647861654</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02284453942708274</v>
+      </c>
+      <c r="F78">
+        <v>-0.03756063536210486</v>
+      </c>
+      <c r="G78">
+        <v>0.09152372385591383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01134273495296845</v>
+        <v>0.04244888335423544</v>
       </c>
       <c r="C80">
-        <v>0.002551736465271224</v>
+        <v>0.07393799976106373</v>
       </c>
       <c r="D80">
-        <v>0.1608143243205965</v>
+        <v>0.01145452254012491</v>
       </c>
       <c r="E80">
-        <v>0.352639679389089</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03134385420733039</v>
+      </c>
+      <c r="F80">
+        <v>-0.01524563731988064</v>
+      </c>
+      <c r="G80">
+        <v>0.2450599552686702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01680814806329614</v>
+        <v>0.1373665877612558</v>
       </c>
       <c r="C81">
-        <v>-0.06925920864589723</v>
+        <v>0.09595073987032431</v>
       </c>
       <c r="D81">
-        <v>0.1826156625607616</v>
+        <v>-0.01513885737623832</v>
       </c>
       <c r="E81">
-        <v>0.04357751664581626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03445490062053273</v>
+      </c>
+      <c r="F81">
+        <v>0.1304473672613638</v>
+      </c>
+      <c r="G81">
+        <v>0.02151514877396578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1297826158128454</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07708647626367138</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008503311505474237</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09054843969976634</v>
+      </c>
+      <c r="F82">
+        <v>0.04854989956142057</v>
+      </c>
+      <c r="G82">
+        <v>0.05670440895748888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.009112133756857724</v>
+        <v>0.03615245216215747</v>
       </c>
       <c r="C83">
-        <v>-0.01482045026893953</v>
+        <v>0.03017079833471888</v>
       </c>
       <c r="D83">
-        <v>0.03652859156356177</v>
+        <v>0.005993258568576307</v>
       </c>
       <c r="E83">
-        <v>-0.0177020243331216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02858647346783751</v>
+      </c>
+      <c r="F83">
+        <v>-0.03225686316175327</v>
+      </c>
+      <c r="G83">
+        <v>0.0616808069401011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02897536196214225</v>
+        <v>0.2126478819370704</v>
       </c>
       <c r="C85">
-        <v>-0.08205617257015606</v>
+        <v>0.1457361980682138</v>
       </c>
       <c r="D85">
-        <v>0.2698104113878957</v>
+        <v>-0.01770542700746151</v>
       </c>
       <c r="E85">
-        <v>0.04749368570028503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09390074767782633</v>
+      </c>
+      <c r="F85">
+        <v>0.1328161276286474</v>
+      </c>
+      <c r="G85">
+        <v>-0.09339260916674483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009907801238128813</v>
+        <v>0.01282872286358164</v>
       </c>
       <c r="C86">
-        <v>-0.0125422953467751</v>
+        <v>0.02829182341298731</v>
       </c>
       <c r="D86">
-        <v>0.05894009771556352</v>
+        <v>0.01207921939396036</v>
       </c>
       <c r="E86">
-        <v>-0.02564369597001431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04688788864977051</v>
+      </c>
+      <c r="F86">
+        <v>-0.02946886716544445</v>
+      </c>
+      <c r="G86">
+        <v>0.1852121089796064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005878915638107376</v>
+        <v>0.02172532086541035</v>
       </c>
       <c r="C87">
-        <v>0.01130656661074632</v>
+        <v>0.02310718837405515</v>
       </c>
       <c r="D87">
-        <v>0.0503891508355944</v>
+        <v>0.0116239023952285</v>
       </c>
       <c r="E87">
-        <v>-0.02982526463224576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08553794691340179</v>
+      </c>
+      <c r="F87">
+        <v>-0.01292077051894991</v>
+      </c>
+      <c r="G87">
+        <v>0.1172883111129427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03209196615658396</v>
+        <v>0.09314376964310893</v>
       </c>
       <c r="C88">
-        <v>-0.0253698639405928</v>
+        <v>0.06881055312604102</v>
       </c>
       <c r="D88">
-        <v>0.06137916315043124</v>
+        <v>0.02227141244436375</v>
       </c>
       <c r="E88">
-        <v>0.0007323025548665535</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.006501225599993499</v>
+      </c>
+      <c r="F88">
+        <v>0.019976890270566</v>
+      </c>
+      <c r="G88">
+        <v>0.08828120921166935</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1368043954278853</v>
+        <v>0.2342289826797949</v>
       </c>
       <c r="C89">
-        <v>-0.3998577889858572</v>
+        <v>-0.3660054011795813</v>
       </c>
       <c r="D89">
-        <v>-0.1575855156290028</v>
+        <v>0.0001064317505066502</v>
       </c>
       <c r="E89">
-        <v>0.03578541015625174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01541286680156482</v>
+      </c>
+      <c r="F89">
+        <v>0.02472746195387295</v>
+      </c>
+      <c r="G89">
+        <v>0.06913953715099798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1088147452017787</v>
+        <v>0.2089410652801312</v>
       </c>
       <c r="C90">
-        <v>-0.3261433535267573</v>
+        <v>-0.3189773742127217</v>
       </c>
       <c r="D90">
-        <v>-0.1532044183424182</v>
+        <v>-0.004481527740492004</v>
       </c>
       <c r="E90">
-        <v>-0.005666266600735671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004551801204297178</v>
+      </c>
+      <c r="F90">
+        <v>0.05280551703199195</v>
+      </c>
+      <c r="G90">
+        <v>0.03666486944771233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.02158933962274993</v>
+        <v>0.1859723342279275</v>
       </c>
       <c r="C91">
-        <v>-0.1032972912135155</v>
+        <v>0.1397311969152825</v>
       </c>
       <c r="D91">
-        <v>0.231719139873495</v>
+        <v>-0.02221933450022611</v>
       </c>
       <c r="E91">
-        <v>0.04548096925503713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05973809236793585</v>
+      </c>
+      <c r="F91">
+        <v>0.1459916331959795</v>
+      </c>
+      <c r="G91">
+        <v>0.02373383113182943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.07268892663993033</v>
+        <v>0.2002021254819856</v>
       </c>
       <c r="C92">
-        <v>-0.3131271182587025</v>
+        <v>-0.2567292196605128</v>
       </c>
       <c r="D92">
-        <v>-0.04708201134626375</v>
+        <v>-0.03786388206561824</v>
       </c>
       <c r="E92">
-        <v>-0.06223450156178228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03787204754172136</v>
+      </c>
+      <c r="F92">
+        <v>0.05971164486905546</v>
+      </c>
+      <c r="G92">
+        <v>0.1246626685215955</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1090147592236283</v>
+        <v>0.2335816096254462</v>
       </c>
       <c r="C93">
-        <v>-0.342802975526841</v>
+        <v>-0.3139543233472551</v>
       </c>
       <c r="D93">
-        <v>-0.1192836968020744</v>
+        <v>-0.01129520456047156</v>
       </c>
       <c r="E93">
-        <v>-0.02055872622120974</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.007768608422010766</v>
+      </c>
+      <c r="F93">
+        <v>0.04023402368698076</v>
+      </c>
+      <c r="G93">
+        <v>0.0507438260422982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.05812806884941154</v>
+        <v>0.316159536179778</v>
       </c>
       <c r="C94">
-        <v>-0.1471446652751031</v>
+        <v>0.1779572093323881</v>
       </c>
       <c r="D94">
-        <v>0.2879925240566972</v>
+        <v>-0.01698466723090551</v>
       </c>
       <c r="E94">
-        <v>0.09330814708797674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1711331054362971</v>
+      </c>
+      <c r="F94">
+        <v>0.4810095051991219</v>
+      </c>
+      <c r="G94">
+        <v>-0.4121238549774514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002034013534825728</v>
+        <v>0.1010895215545293</v>
       </c>
       <c r="C95">
-        <v>-0.02163764015232797</v>
+        <v>0.08671410349523946</v>
       </c>
       <c r="D95">
-        <v>0.1183862835686578</v>
+        <v>-0.01081073944354636</v>
       </c>
       <c r="E95">
-        <v>-0.1318928326011779</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07228260147101855</v>
+      </c>
+      <c r="F95">
+        <v>-0.2036917580126608</v>
+      </c>
+      <c r="G95">
+        <v>-0.0987305619590393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.03288772458204246</v>
+        <v>0.1970012721763846</v>
       </c>
       <c r="C98">
-        <v>-0.1358846912360454</v>
+        <v>0.04710182965763646</v>
       </c>
       <c r="D98">
-        <v>0.1617887945702438</v>
+        <v>-0.0132698311832701</v>
       </c>
       <c r="E98">
-        <v>-0.03265974633950857</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06644016457565559</v>
+      </c>
+      <c r="F98">
+        <v>-0.2405261670169097</v>
+      </c>
+      <c r="G98">
+        <v>0.001900570831223503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01037821875726379</v>
+        <v>0.009137448634233108</v>
       </c>
       <c r="C101">
-        <v>-0.01235982337072895</v>
+        <v>0.02282557238687533</v>
       </c>
       <c r="D101">
-        <v>0.02080414077106876</v>
+        <v>0.008764440451927343</v>
       </c>
       <c r="E101">
-        <v>-0.004146622134542965</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0006178806437582998</v>
+      </c>
+      <c r="F101">
+        <v>0.01791286999118141</v>
+      </c>
+      <c r="G101">
+        <v>0.09370932509776568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02121625822406472</v>
+        <v>0.1163903844073733</v>
       </c>
       <c r="C102">
-        <v>-0.03821515111088977</v>
+        <v>0.08357895216982092</v>
       </c>
       <c r="D102">
-        <v>0.1314722551255916</v>
+        <v>0.0007257983032274974</v>
       </c>
       <c r="E102">
-        <v>0.02479378077006089</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03394232797095202</v>
+      </c>
+      <c r="F102">
+        <v>0.04349903259534114</v>
+      </c>
+      <c r="G102">
+        <v>0.009051318113323928</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9432008213167252</v>
+        <v>0.02107156082352991</v>
       </c>
       <c r="C104">
-        <v>0.3020364800169747</v>
+        <v>-0.02946562667769162</v>
       </c>
       <c r="D104">
-        <v>-0.03813395679833975</v>
+        <v>0.9878316464281657</v>
       </c>
       <c r="E104">
-        <v>0.02575384180587113</v>
+        <v>-0.04610133987091191</v>
+      </c>
+      <c r="F104">
+        <v>0.03612799077937073</v>
+      </c>
+      <c r="G104">
+        <v>-0.03433930198215482</v>
       </c>
     </row>
   </sheetData>
